--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1825,13 +1825,16 @@
   <si>
     <t>exportEXCEL(sql,output,sheet,start)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2420,8 +2423,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="155">
+  <fills count="185">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3296,8 +3400,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4745,6 +5019,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4752,7 +5308,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="137">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5089,52 +5645,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="127" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="127" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="130" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="130" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="133" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="133" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="136" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="136" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="142" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="142" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="145" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="145" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="148" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="148" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="148" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="148" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="157" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="160" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="163" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="166" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="172" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="175" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="178" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="178" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5725,7 +6329,7 @@
         <v>455</v>
       </c>
       <c r="D3" t="s">
-        <v>477</v>
+        <v>581</v>
       </c>
       <c r="E3" t="s">
         <v>456</v>
@@ -5808,7 +6412,7 @@
         <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -5891,7 +6495,7 @@
         <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E5" t="s">
         <v>457</v>
@@ -5960,6 +6564,9 @@
       </c>
       <c r="B6" t="s">
         <v>374</v>
+      </c>
+      <c r="D6" t="s">
+        <v>479</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>

--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4976" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1828,13 +1828,16 @@
   <si>
     <t>purgeQueue(profile,queue,var)</t>
   </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2524,8 +2527,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="185">
+  <fills count="245">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3570,8 +3775,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5301,6 +5846,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5308,7 +6417,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="169">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5693,52 +6802,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="157" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="157" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="160" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="160" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="163" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="163" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="166" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="166" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="172" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="172" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="175" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="175" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="178" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="178" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="178" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="178" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="187" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="190" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="193" fontId="111" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="196" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="199" fontId="114" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="202" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="205" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="208" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="208" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="196" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="211" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="196" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="214" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="217" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="220" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="223" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="226" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="229" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="232" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="235" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="238" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="238" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="226" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="241" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="226" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7204,7 +8409,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>

--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -22,17 +22,17 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -47,13 +47,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4976" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7180" uniqueCount="601">
   <si>
     <t>description</t>
   </si>
@@ -1831,13 +1832,67 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="204" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2729,8 +2784,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="245">
+  <fills count="353">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4115,8 +4574,620 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -6410,6 +7481,1310 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6417,7 +8792,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6898,52 +9273,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="214" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="217" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="217" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="220" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="220" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="223" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="223" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="226" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="226" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="229" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="229" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="232" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="232" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="235" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="235" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="238" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="238" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="238" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="238" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="226" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="226" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="241" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="241" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="226" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="226" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="247" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="250" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="253" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="256" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="146" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="262" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="253" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="265" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="265" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="256" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="268" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="256" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="274" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="277" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="280" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="283" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="162" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="289" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="280" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="292" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="292" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="283" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="295" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="283" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="301" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="304" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="307" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="310" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="316" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="307" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="319" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="319" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="310" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="322" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="310" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="328" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="331" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="334" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="337" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="343" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="334" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="346" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="346" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="337" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="349" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="337" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7328,7 +9895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7413,21 +9980,24 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>412</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7505,21 +10075,24 @@
         <v>405</v>
       </c>
       <c r="Y2" t="s">
+        <v>598</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>497</v>
       </c>
     </row>
@@ -7590,22 +10163,22 @@
       <c r="X3" t="s">
         <v>406</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7673,22 +10246,22 @@
       <c r="X4" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>422</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7714,6 +10287,9 @@
       <c r="H5" t="s">
         <v>458</v>
       </c>
+      <c r="I5" t="s">
+        <v>585</v>
+      </c>
       <c r="J5" t="s">
         <v>349</v>
       </c>
@@ -7744,22 +10320,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>353</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>423</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7812,22 +10388,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>424</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7847,6 +10423,9 @@
       <c r="H7" t="s">
         <v>445</v>
       </c>
+      <c r="J7" t="s">
+        <v>586</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -7871,23 +10450,23 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>425</v>
       </c>
-      <c r="AD7" t="s">
-        <v>230</v>
+      <c r="AE7" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="8">
@@ -7927,23 +10506,23 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>426</v>
       </c>
-      <c r="AD8" t="s">
-        <v>231</v>
+      <c r="AE8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="9">
@@ -7983,14 +10562,14 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
-        <v>232</v>
+      <c r="AE9" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="10">
@@ -8024,14 +10603,14 @@
       <c r="T10" t="s">
         <v>404</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
-        <v>472</v>
+      <c r="AE10" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -8062,14 +10641,14 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
-        <v>498</v>
+      <c r="AE11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -8089,7 +10668,7 @@
         <v>388</v>
       </c>
       <c r="M12" t="s">
-        <v>434</v>
+        <v>587</v>
       </c>
       <c r="N12" t="s">
         <v>513</v>
@@ -8100,14 +10679,14 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
-        <v>499</v>
+      <c r="AE12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -8127,7 +10706,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -8135,14 +10714,14 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
-        <v>500</v>
+      <c r="AE13" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="14">
@@ -8162,7 +10741,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -8170,14 +10749,14 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
-        <v>501</v>
+      <c r="AE14" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="15">
@@ -8194,7 +10773,7 @@
         <v>485</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>489</v>
@@ -8202,14 +10781,14 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
-        <v>473</v>
+      <c r="AE15" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="16">
@@ -8226,7 +10805,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>490</v>
@@ -8234,14 +10813,14 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
-        <v>502</v>
+      <c r="AE16" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -8257,14 +10836,17 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s">
         <v>491</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>465</v>
       </c>
-      <c r="AD17" t="s">
-        <v>503</v>
+      <c r="AE17" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="18">
@@ -8280,11 +10862,11 @@
       <c r="K18" t="s">
         <v>461</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
-        <v>504</v>
+      <c r="AE18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="19">
@@ -8300,11 +10882,11 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
-        <v>233</v>
+      <c r="AE19" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="20">
@@ -8320,11 +10902,11 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
-        <v>234</v>
+      <c r="AE20" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="21">
@@ -8340,11 +10922,11 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
-        <v>235</v>
+      <c r="AE21" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="22">
@@ -8352,7 +10934,7 @@
         <v>411</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>597</v>
       </c>
       <c r="G22" t="s">
         <v>297</v>
@@ -8360,8 +10942,11 @@
       <c r="K22" t="s">
         <v>468</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>492</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23">
@@ -8369,7 +10954,7 @@
         <v>355</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>288</v>
@@ -8377,8 +10962,11 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="24">
@@ -8386,7 +10974,7 @@
         <v>395</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
         <v>277</v>
@@ -8394,16 +10982,19 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>109</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>596</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
@@ -8411,16 +11002,19 @@
       <c r="K25" t="s">
         <v>582</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>447</v>
       </c>
       <c r="G26" t="s">
         <v>280</v>
@@ -8428,16 +11022,19 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>264</v>
@@ -8445,16 +11042,19 @@
       <c r="K27" t="s">
         <v>432</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>466</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>281</v>
@@ -8462,16 +11062,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G29" t="s">
         <v>282</v>
@@ -8479,722 +11079,747 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="E30" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>506</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Y39" t="s">
-        <v>391</v>
+      <c r="Z39" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Y40" t="s">
-        <v>120</v>
+      <c r="Z40" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Y41" t="s">
-        <v>121</v>
+      <c r="Z41" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>122</v>
+        <v>599</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>123</v>
+        <v>287</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>124</v>
+        <v>298</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>125</v>
+        <v>299</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>437</v>
+        <v>341</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>211</v>
+        <v>340</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>77</v>
+        <v>209</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>126</v>
+        <v>318</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>127</v>
+        <v>337</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>128</v>
+        <v>366</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>493</v>
+        <v>300</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>462</v>
+        <v>354</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>129</v>
+        <v>329</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>344</v>
+        <v>266</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>463</v>
+        <v>290</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>130</v>
+        <v>291</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>131</v>
+        <v>600</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>132</v>
+        <v>292</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>134</v>
+        <v>310</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>135</v>
+        <v>335</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>136</v>
+        <v>307</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>438</v>
+        <v>308</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>471</v>
+        <v>367</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>212</v>
+        <v>368</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>387</v>
+        <v>343</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>439</v>
+        <v>311</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>137</v>
+        <v>267</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>138</v>
+        <v>583</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>139</v>
+        <v>312</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>140</v>
+        <v>408</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>195</v>
+        <v>302</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>196</v>
+        <v>409</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>451</v>
+        <v>260</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>464</v>
+        <v>507</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>141</v>
+        <v>342</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>142</v>
+        <v>278</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>143</v>
+        <v>284</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>494</v>
+        <v>289</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>144</v>
+        <v>427</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>145</v>
+        <v>330</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>197</v>
+        <v>268</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>495</v>
+        <v>279</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>198</v>
+        <v>285</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>452</v>
+        <v>274</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>199</v>
+        <v>584</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>200</v>
+        <v>269</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>213</v>
+        <v>286</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>146</v>
+        <v>270</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>201</v>
+        <v>271</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>440</v>
+        <v>303</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>441</v>
+        <v>309</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>276</v>
       </c>
-      <c r="Y94" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
+      <c r="Z97" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -32,7 +32,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -47,13 +47,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7180" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7731" uniqueCount="602">
   <si>
     <t>description</t>
   </si>
@@ -1886,13 +1886,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="204" x14ac:knownFonts="1">
+  <fonts count="220" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3188,8 +3191,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="353">
+  <fills count="380">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5186,8 +5290,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="387">
     <border>
       <left/>
       <right/>
@@ -8785,6 +9042,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8792,7 +9375,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="249">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9465,52 +10048,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="328" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="328" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="331" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="331" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="334" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="334" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="337" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="337" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="343" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="343" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="334" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="334" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="346" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="346" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="346" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="346" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="337" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="337" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="349" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="349" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="337" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="337" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="352" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="355" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="358" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="361" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="364" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="370" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="361" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="373" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="373" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="376" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9895,7 +10526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9980,24 +10611,21 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
-        <v>596</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC1" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="AD1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -10075,24 +10703,21 @@
         <v>405</v>
       </c>
       <c r="Y2" t="s">
-        <v>598</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC2" t="s">
-        <v>181</v>
+        <v>430</v>
       </c>
       <c r="AD2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE2" t="s">
         <v>497</v>
       </c>
     </row>
@@ -10163,22 +10788,22 @@
       <c r="X3" t="s">
         <v>406</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
       <c r="AC3" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="AD3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -10246,22 +10871,22 @@
       <c r="X4" t="s">
         <v>407</v>
       </c>
+      <c r="Y4" t="s">
+        <v>352</v>
+      </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="AD4" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10320,22 +10945,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
+      <c r="Y5" t="s">
+        <v>353</v>
+      </c>
       <c r="Z5" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC5" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10388,22 +11013,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>443</v>
       </c>
       <c r="AA6" t="s">
-        <v>443</v>
+        <v>178</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD6" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -10450,22 +11075,22 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="AA7" t="s">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC7" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AD7" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE7" t="s">
         <v>590</v>
       </c>
     </row>
@@ -10506,22 +11131,22 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AD8" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE8" t="s">
         <v>591</v>
       </c>
     </row>
@@ -10562,13 +11187,13 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>592</v>
       </c>
     </row>
@@ -10603,13 +11228,13 @@
       <c r="T10" t="s">
         <v>404</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>255</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10641,13 +11266,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -10679,13 +11304,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -10714,13 +11339,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>324</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>472</v>
       </c>
     </row>
@@ -10749,13 +11374,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>498</v>
       </c>
     </row>
@@ -10781,13 +11406,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>499</v>
       </c>
     </row>
@@ -10805,7 +11430,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>601</v>
       </c>
       <c r="Q16" t="s">
         <v>490</v>
@@ -10813,13 +11438,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10837,15 +11462,15 @@
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>491</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>465</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>501</v>
       </c>
     </row>
@@ -10862,10 +11487,13 @@
       <c r="K18" t="s">
         <v>461</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>473</v>
       </c>
     </row>
@@ -10882,10 +11510,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>502</v>
       </c>
     </row>
@@ -10902,10 +11530,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>503</v>
       </c>
     </row>
@@ -10922,10 +11550,10 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>504</v>
       </c>
     </row>
@@ -10942,10 +11570,10 @@
       <c r="K22" t="s">
         <v>468</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>492</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10962,10 +11590,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>593</v>
       </c>
     </row>
@@ -10982,16 +11610,16 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>596</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -11002,16 +11630,16 @@
       <c r="K25" t="s">
         <v>582</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>447</v>
@@ -11022,16 +11650,16 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>223</v>
@@ -11042,16 +11670,16 @@
       <c r="K27" t="s">
         <v>432</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>224</v>
@@ -11062,13 +11690,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="E29" t="s">
         <v>466</v>
@@ -11079,13 +11707,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
         <v>467</v>
@@ -11093,21 +11721,18 @@
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
       <c r="E31" t="s">
         <v>414</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -11118,7 +11743,7 @@
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -11129,7 +11754,7 @@
       <c r="G33" t="s">
         <v>506</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -11140,7 +11765,7 @@
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -11151,7 +11776,7 @@
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11162,7 +11787,7 @@
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -11173,7 +11798,7 @@
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>336</v>
       </c>
     </row>
@@ -11184,7 +11809,7 @@
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>436</v>
       </c>
     </row>
@@ -11195,7 +11820,7 @@
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>588</v>
       </c>
     </row>
@@ -11203,7 +11828,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>391</v>
       </c>
     </row>
@@ -11211,7 +11836,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11219,7 +11844,7 @@
       <c r="G42" t="s">
         <v>599</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11227,7 +11852,7 @@
       <c r="G43" t="s">
         <v>287</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11235,7 +11860,7 @@
       <c r="G44" t="s">
         <v>298</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -11243,7 +11868,7 @@
       <c r="G45" t="s">
         <v>299</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -11251,7 +11876,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -11259,7 +11884,7 @@
       <c r="G47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>437</v>
       </c>
     </row>
@@ -11267,7 +11892,7 @@
       <c r="G48" t="s">
         <v>209</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11275,7 +11900,7 @@
       <c r="G49" t="s">
         <v>318</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -11283,7 +11908,7 @@
       <c r="G50" t="s">
         <v>337</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>589</v>
       </c>
     </row>
@@ -11291,7 +11916,7 @@
       <c r="G51" t="s">
         <v>366</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -11299,7 +11924,7 @@
       <c r="G52" t="s">
         <v>300</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11307,7 +11932,7 @@
       <c r="G53" t="s">
         <v>354</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -11315,7 +11940,7 @@
       <c r="G54" t="s">
         <v>329</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>493</v>
       </c>
     </row>
@@ -11323,7 +11948,7 @@
       <c r="G55" t="s">
         <v>266</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>462</v>
       </c>
     </row>
@@ -11331,7 +11956,7 @@
       <c r="G56" t="s">
         <v>290</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -11339,7 +11964,7 @@
       <c r="G57" t="s">
         <v>291</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>344</v>
       </c>
     </row>
@@ -11347,7 +11972,7 @@
       <c r="G58" t="s">
         <v>600</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>463</v>
       </c>
     </row>
@@ -11355,7 +11980,7 @@
       <c r="G59" t="s">
         <v>292</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11363,7 +11988,7 @@
       <c r="G60" t="s">
         <v>301</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11371,7 +11996,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11379,7 +12004,7 @@
       <c r="G62" t="s">
         <v>335</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11387,7 +12012,7 @@
       <c r="G63" t="s">
         <v>307</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -11395,7 +12020,7 @@
       <c r="G64" t="s">
         <v>308</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -11403,7 +12028,7 @@
       <c r="G65" t="s">
         <v>367</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11411,7 +12036,7 @@
       <c r="G66" t="s">
         <v>368</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>438</v>
       </c>
     </row>
@@ -11419,7 +12044,7 @@
       <c r="G67" t="s">
         <v>343</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11427,7 +12052,7 @@
       <c r="G68" t="s">
         <v>311</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -11435,7 +12060,7 @@
       <c r="G69" t="s">
         <v>267</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>387</v>
       </c>
     </row>
@@ -11443,7 +12068,7 @@
       <c r="G70" t="s">
         <v>583</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -11451,7 +12076,7 @@
       <c r="G71" t="s">
         <v>312</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -11459,7 +12084,7 @@
       <c r="G72" t="s">
         <v>408</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -11467,7 +12092,7 @@
       <c r="G73" t="s">
         <v>302</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -11475,7 +12100,7 @@
       <c r="G74" t="s">
         <v>409</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -11483,7 +12108,7 @@
       <c r="G75" t="s">
         <v>260</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -11491,7 +12116,7 @@
       <c r="G76" t="s">
         <v>507</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -11499,7 +12124,7 @@
       <c r="G77" t="s">
         <v>342</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>451</v>
       </c>
     </row>
@@ -11507,7 +12132,7 @@
       <c r="G78" t="s">
         <v>278</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11515,7 +12140,7 @@
       <c r="G79" t="s">
         <v>284</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -11523,7 +12148,7 @@
       <c r="G80" t="s">
         <v>289</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11531,7 +12156,7 @@
       <c r="G81" t="s">
         <v>427</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -11539,7 +12164,7 @@
       <c r="G82" t="s">
         <v>330</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>494</v>
       </c>
     </row>
@@ -11547,7 +12172,7 @@
       <c r="G83" t="s">
         <v>268</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -11555,7 +12180,7 @@
       <c r="G84" t="s">
         <v>279</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -11563,7 +12188,7 @@
       <c r="G85" t="s">
         <v>285</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -11571,7 +12196,7 @@
       <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>495</v>
       </c>
     </row>
@@ -11579,7 +12204,7 @@
       <c r="G87" t="s">
         <v>584</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11587,7 +12212,7 @@
       <c r="G88" t="s">
         <v>269</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>452</v>
       </c>
     </row>
@@ -11595,7 +12220,7 @@
       <c r="G89" t="s">
         <v>286</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -11603,7 +12228,7 @@
       <c r="G90" t="s">
         <v>270</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -11611,7 +12236,7 @@
       <c r="G91" t="s">
         <v>271</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -11619,7 +12244,7 @@
       <c r="G92" t="s">
         <v>303</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11627,7 +12252,7 @@
       <c r="G93" t="s">
         <v>309</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11635,7 +12260,7 @@
       <c r="G94" t="s">
         <v>293</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>440</v>
       </c>
     </row>
@@ -11643,7 +12268,7 @@
       <c r="G95" t="s">
         <v>338</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>441</v>
       </c>
     </row>
@@ -11651,7 +12276,7 @@
       <c r="G96" t="s">
         <v>275</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11659,167 +12284,167 @@
       <c r="G97" t="s">
         <v>276</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -26,7 +26,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -48,7 +48,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7731" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9398" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1889,13 +1889,31 @@
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="220" x14ac:knownFonts="1">
+  <fonts count="268" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3292,8 +3310,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="380">
+  <fills count="461">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5443,8 +5764,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="387">
+  <borders count="483">
     <border>
       <left/>
       <right/>
@@ -9368,6 +10148,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9375,7 +11133,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="297">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10096,52 +11854,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="352" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="355" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="355" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="358" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="358" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="361" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="361" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="364" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="364" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="367" fontId="210" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="370" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="370" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="361" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="361" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="373" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="373" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="373" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="373" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="364" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="376" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="376" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="364" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="379" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="382" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="385" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="388" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="391" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="394" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="397" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="388" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="400" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="400" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="391" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="403" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="391" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="406" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="409" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="412" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="415" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="418" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="421" fontId="242" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="424" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="415" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="427" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="427" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="418" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="430" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="418" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="433" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="436" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="439" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="442" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="445" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="448" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="451" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="442" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="454" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="454" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="457" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="460" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10526,7 +12428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10907,7 +12809,7 @@
         <v>431</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>605</v>
       </c>
       <c r="H5" t="s">
         <v>458</v>
@@ -10981,7 +12883,7 @@
         <v>480</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
         <v>446</v>
@@ -11043,7 +12945,7 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
         <v>445</v>
@@ -11105,7 +13007,7 @@
         <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
@@ -11161,7 +13063,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="H9" t="s">
         <v>327</v>
@@ -11205,7 +13107,7 @@
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>450</v>
@@ -11246,7 +13148,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
         <v>320</v>
@@ -11284,7 +13186,7 @@
         <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>321</v>
@@ -11322,7 +13224,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -11357,7 +13259,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
         <v>323</v>
@@ -11392,7 +13294,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
         <v>485</v>
@@ -11424,7 +13326,7 @@
         <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -11456,7 +13358,7 @@
         <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -11482,7 +13384,7 @@
         <v>413</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>461</v>
@@ -11505,7 +13407,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -11525,7 +13427,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -11545,7 +13447,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>378</v>
@@ -11565,7 +13467,7 @@
         <v>597</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K22" t="s">
         <v>468</v>
@@ -11585,7 +13487,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -11605,13 +13507,13 @@
         <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
         <v>390</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>602</v>
       </c>
       <c r="AD24" t="s">
         <v>594</v>
@@ -11625,13 +13527,13 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
         <v>582</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD25" t="s">
         <v>595</v>
@@ -11645,13 +13547,13 @@
         <v>447</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="s">
         <v>234</v>
@@ -11665,13 +13567,13 @@
         <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
         <v>432</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD27" t="s">
         <v>235</v>
@@ -11685,13 +13587,13 @@
         <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -11702,13 +13604,13 @@
         <v>466</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30">
@@ -11719,10 +13621,10 @@
         <v>467</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -11730,10 +13632,10 @@
         <v>414</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -11741,10 +13643,10 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -11752,10 +13654,10 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>506</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -11763,10 +13665,10 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>506</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35">
@@ -11774,10 +13676,10 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Y35" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -11785,10 +13687,10 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -11796,10 +13698,10 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -11807,10 +13709,10 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s">
-        <v>436</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -11818,633 +13720,661 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
-        <v>588</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
-        <v>120</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>599</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>287</v>
+        <v>599</v>
       </c>
       <c r="Y43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Y46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s">
-        <v>437</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
-        <v>589</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s">
-        <v>127</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Y53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Y54" t="s">
-        <v>493</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="s">
-        <v>129</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>600</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s">
-        <v>463</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>292</v>
+        <v>600</v>
       </c>
       <c r="Y59" t="s">
-        <v>130</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s">
-        <v>131</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y66" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="Y67" t="s">
-        <v>471</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="Y69" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>583</v>
+        <v>267</v>
       </c>
       <c r="Y70" t="s">
-        <v>439</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>312</v>
+        <v>583</v>
       </c>
       <c r="Y71" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="Y72" t="s">
-        <v>138</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>302</v>
+        <v>408</v>
       </c>
       <c r="Y73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="Y74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="Y75" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>507</v>
+        <v>260</v>
       </c>
       <c r="Y76" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>342</v>
+        <v>507</v>
       </c>
       <c r="Y77" t="s">
-        <v>451</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="Y78" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Y79" t="s">
-        <v>141</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Y80" t="s">
-        <v>142</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>427</v>
+        <v>289</v>
       </c>
       <c r="Y81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>330</v>
+        <v>427</v>
       </c>
       <c r="Y82" t="s">
-        <v>494</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="Y83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Y84" t="s">
-        <v>145</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y85" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Y86" t="s">
-        <v>495</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>584</v>
+        <v>274</v>
       </c>
       <c r="Y87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>269</v>
+        <v>584</v>
       </c>
       <c r="Y88" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y90" t="s">
-        <v>200</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y91" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y92" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y93" t="s">
-        <v>201</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Y94" t="s">
-        <v>440</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Y95" t="s">
-        <v>441</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>204</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>514</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>515</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>381</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>514</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>150</v>
+        <v>515</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>442</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -22,39 +22,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9398" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10520" uniqueCount="614">
   <si>
     <t>description</t>
   </si>
@@ -1907,13 +1908,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="268" x14ac:knownFonts="1">
+  <fonts count="300" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3613,8 +3632,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="461">
+  <fills count="515">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6223,8 +6444,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="483">
+  <borders count="547">
     <border>
       <left/>
       <right/>
@@ -11126,6 +11653,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11133,7 +12312,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="329">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11998,52 +13177,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="433" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="436" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="436" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="439" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="439" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="442" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="442" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="445" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="445" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="448" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="448" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="451" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="451" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="442" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="442" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="454" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="454" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="454" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="454" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="445" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="457" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="457" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="445" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="460" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="463" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="466" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="469" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="472" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="475" fontId="274" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="478" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="469" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="481" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="481" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="472" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="484" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="472" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="487" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="490" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="493" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="496" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="499" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="505" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="496" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="508" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="508" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="499" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="511" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="499" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="514" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12428,7 +13703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12453,81 +13728,84 @@
         <v>474</v>
       </c>
       <c r="E1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>345</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>331</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>505</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>475</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>394</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>410</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>411</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>355</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>395</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>412</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12545,81 +13823,84 @@
         <v>476</v>
       </c>
       <c r="E2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>448</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>459</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>313</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>382</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>433</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>508</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>486</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>415</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>428</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>251</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>215</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>396</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>417</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>418</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>379</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>405</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>497</v>
       </c>
     </row>
@@ -12636,76 +13917,76 @@
       <c r="D3" t="s">
         <v>581</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>456</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>363</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>481</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>347</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>339</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>332</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>509</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>487</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>429</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>238</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>216</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>397</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>419</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>380</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>406</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -12719,82 +14000,82 @@
       <c r="D4" t="s">
         <v>477</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>385</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>449</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>482</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>348</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>236</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>333</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>510</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>488</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>239</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>217</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>398</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>420</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>356</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>422</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>608</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -12802,73 +14083,73 @@
       <c r="D5" t="s">
         <v>478</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>457</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>431</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>605</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>458</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>585</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>349</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>460</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>580</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>240</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>218</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>399</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>421</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
-        <v>353</v>
-      </c>
       <c r="Z5" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>423</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>374</v>
@@ -12876,1505 +14157,1513 @@
       <c r="D6" t="s">
         <v>479</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>480</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>334</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>446</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>346</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>574</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>241</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>389</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>400</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>424</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>375</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>386</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>445</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>586</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>313</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>575</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>416</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>401</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>425</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>376</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>316</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>364</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>326</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>483</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>576</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>402</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>426</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>377</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>365</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>327</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>579</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>403</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>313</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>304</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>450</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>511</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>435</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>245</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>404</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" t="s">
+        <v>611</v>
+      </c>
+      <c r="H11" t="s">
         <v>350</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>320</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>484</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>469</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>512</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>317</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>272</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>321</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>388</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>587</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>513</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" t="s">
         <v>339</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>261</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>322</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>434</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>505</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>314</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>323</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>470</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>475</v>
-      </c>
-      <c r="E15" t="s">
+        <v>505</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>262</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>485</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>489</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" t="s">
         <v>383</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>263</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>601</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>490</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
         <v>384</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>315</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>491</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>465</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>413</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>461</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>294</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" t="s">
         <v>254</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>295</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>411</v>
-      </c>
-      <c r="E22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" t="s">
         <v>597</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>296</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>468</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>492</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E23" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>297</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>395</v>
-      </c>
-      <c r="E24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" t="s">
         <v>319</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>288</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>390</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>602</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>277</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>582</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>109</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
         <v>447</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>110</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
         <v>223</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>280</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>432</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
         <v>224</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>264</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
-      </c>
-      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>466</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>281</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" t="s">
+        <v>467</v>
+      </c>
+      <c r="H30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="E30" t="s">
-        <v>467</v>
-      </c>
-      <c r="G30" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>414</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>273</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>283</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>506</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>328</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>305</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>259</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>588</v>
+      <c r="Z41" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>599</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>366</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>354</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>600</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>367</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>368</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>583</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>408</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>409</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>507</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>427</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>584</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -22,7 +22,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -30,7 +30,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10520" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11645" uniqueCount="619">
   <si>
     <t>description</t>
   </si>
@@ -1926,13 +1926,28 @@
   <si>
     <t>assertTextNotContain(locator,text)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="300" x14ac:knownFonts="1">
+  <fonts count="332" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3834,8 +3849,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="515">
+  <fills count="569">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6750,8 +6967,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="547">
+  <borders count="611">
     <border>
       <left/>
       <right/>
@@ -12305,6 +12828,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12312,7 +13487,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="361">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13273,52 +14448,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="487" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="490" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="490" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="493" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="493" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="496" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="496" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="499" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="499" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="502" fontId="290" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="505" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="505" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="496" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="496" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="508" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="508" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="508" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="508" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="499" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="499" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="511" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="511" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="499" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="499" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="514" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="514" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="517" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="520" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="523" fontId="303" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="526" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="529" fontId="306" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="532" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="523" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="535" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="535" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="526" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="538" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="526" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="541" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="544" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="547" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="550" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="553" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="556" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="559" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="550" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="562" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="562" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="553" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="565" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="553" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="568" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14019,7 +15290,7 @@
         <v>348</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>617</v>
       </c>
       <c r="M4" t="s">
         <v>333</v>
@@ -14055,7 +15326,7 @@
         <v>407</v>
       </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>618</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -14102,7 +15373,7 @@
         <v>349</v>
       </c>
       <c r="L5" t="s">
-        <v>460</v>
+        <v>236</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -14173,7 +15444,7 @@
         <v>346</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>460</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -14235,7 +15506,7 @@
         <v>586</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>313</v>
@@ -14294,7 +15565,7 @@
         <v>326</v>
       </c>
       <c r="L8" t="s">
-        <v>483</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -14350,7 +15621,7 @@
         <v>327</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -14394,7 +15665,7 @@
         <v>450</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -14435,7 +15706,7 @@
         <v>320</v>
       </c>
       <c r="L11" t="s">
-        <v>484</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>469</v>
@@ -14473,7 +15744,7 @@
         <v>321</v>
       </c>
       <c r="L12" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
       <c r="N12" t="s">
         <v>587</v>
@@ -14511,7 +15782,7 @@
         <v>322</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="N13" t="s">
         <v>434</v>
@@ -14546,7 +15817,7 @@
         <v>323</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>470</v>
@@ -14578,7 +15849,7 @@
         <v>262</v>
       </c>
       <c r="L15" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -14610,7 +15881,7 @@
         <v>263</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="N16" t="s">
         <v>601</v>
@@ -14642,7 +15913,7 @@
         <v>315</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -14668,7 +15939,7 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -14685,13 +15956,13 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>616</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -14705,13 +15976,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -14725,13 +15996,13 @@
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>378</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -14745,13 +16016,13 @@
         <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>597</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
       </c>
       <c r="L22" t="s">
-        <v>468</v>
+        <v>615</v>
       </c>
       <c r="Z22" t="s">
         <v>492</v>
@@ -14765,13 +16036,13 @@
         <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>597</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>468</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -14785,13 +16056,13 @@
         <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
       </c>
       <c r="L24" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>602</v>
@@ -14805,13 +16076,13 @@
         <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
       </c>
       <c r="L25" t="s">
-        <v>582</v>
+        <v>390</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -14825,13 +16096,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>582</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -14845,13 +16116,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>447</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>432</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -14865,13 +16136,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="Z28" t="s">
         <v>112</v>
@@ -14882,13 +16153,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>466</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>325</v>
@@ -14899,10 +16170,13 @@
         <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -14913,7 +16187,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -14924,7 +16198,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -14935,7 +16209,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -14946,7 +16220,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>506</v>
@@ -14957,7 +16231,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -14968,7 +16242,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -14979,7 +16253,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -14990,7 +16264,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -15001,7 +16275,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -15011,6 +16285,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>

--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -22,13 +22,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -48,7 +48,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11645" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12210" uniqueCount="622">
   <si>
     <t>description</t>
   </si>
@@ -1941,13 +1941,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="332" x14ac:knownFonts="1">
+  <fonts count="348" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4051,8 +4060,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="569">
+  <fills count="596">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7273,8 +7383,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="611">
+  <borders count="643">
     <border>
       <left/>
       <right/>
@@ -13480,6 +13743,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13487,7 +14076,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="377">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14544,52 +15133,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="541" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="544" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="544" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="547" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="547" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="550" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="550" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="553" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="553" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="556" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="556" fontId="322" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="559" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="559" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="550" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="550" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="562" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="562" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="562" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="562" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="553" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="553" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="565" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="565" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="553" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="553" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="568" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="568" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="571" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="574" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="577" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="580" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="583" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="586" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="577" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="589" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="589" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="580" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="592" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="580" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="595" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14974,7 +15611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15440,6 +16077,9 @@
       <c r="I6" t="s">
         <v>446</v>
       </c>
+      <c r="J6" t="s">
+        <v>619</v>
+      </c>
       <c r="K6" t="s">
         <v>346</v>
       </c>
@@ -15956,7 +16596,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>616</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -15976,7 +16616,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -15996,7 +16636,7 @@
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
@@ -16016,7 +16656,7 @@
         <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>597</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
@@ -16036,7 +16676,7 @@
         <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>597</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
@@ -16056,7 +16696,7 @@
         <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
@@ -16076,7 +16716,7 @@
         <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
@@ -16096,7 +16736,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>447</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -16116,7 +16756,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
@@ -16136,7 +16776,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
@@ -16153,7 +16793,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>466</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
@@ -16170,7 +16810,7 @@
         <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
@@ -16187,7 +16827,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -16198,7 +16838,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -16209,7 +16849,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -16220,7 +16860,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>506</v>
@@ -16231,7 +16871,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -16242,7 +16882,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -16253,7 +16893,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -16264,7 +16904,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -16275,7 +16915,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -16285,9 +16925,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>
@@ -16761,186 +17398,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>441</v>
+        <v>620</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>621</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>496</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>610</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>604</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>604</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12210" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12775" uniqueCount="622">
   <si>
     <t>description</t>
   </si>
@@ -1956,7 +1956,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="348" x14ac:knownFonts="1">
+  <fonts count="364" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4161,8 +4161,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="596">
+  <fills count="623">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7536,8 +7637,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="643">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -14069,6 +14323,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14076,7 +14656,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="393">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15181,52 +15761,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="568" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="571" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="571" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="574" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="574" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="577" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="577" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="580" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="580" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="583" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="583" fontId="338" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="586" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="586" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="577" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="577" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="589" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="589" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="589" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="589" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="580" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="580" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="592" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="592" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="580" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="580" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="595" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="595" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="598" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="601" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="604" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="607" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="610" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="613" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="604" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="616" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="616" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="619" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="622" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
+++ b/examples/localdb/artifact/script/crawl-testing-blogs.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12775" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13340" uniqueCount="622">
   <si>
     <t>description</t>
   </si>
@@ -1956,7 +1956,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="364" x14ac:knownFonts="1">
+  <fonts count="380" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4262,8 +4262,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="623">
+  <fills count="650">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7790,8 +7891,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="707">
     <border>
       <left/>
       <right/>
@@ -14649,6 +14903,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14656,7 +15236,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="409">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15809,52 +16389,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="595" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="598" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="598" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="601" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="601" fontId="350" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="604" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="604" fontId="351" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="607" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="607" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="610" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="610" fontId="354" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="613" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="613" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="604" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="604" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="616" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="616" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="616" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="616" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="607" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="619" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="619" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="607" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="622" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="622" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="625" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="628" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="631" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="634" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="637" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="640" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="631" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="643" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="643" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="634" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="646" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="634" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="649" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
